--- a/outputs/outputAll.xlsx
+++ b/outputs/outputAll.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Measure</t>
   </si>
@@ -29,199 +29,67 @@
     <t>SD</t>
   </si>
   <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
     <t>Observations</t>
   </si>
   <si>
     <t>SIZE</t>
   </si>
   <si>
-    <t>9.60440625</t>
-  </si>
-  <si>
-    <t>9.81</t>
-  </si>
-  <si>
-    <t>1.90763528317877</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>41222.7721875</t>
-  </si>
-  <si>
-    <t>14092.5</t>
-  </si>
-  <si>
-    <t>59488.1688920408</t>
-  </si>
-  <si>
     <t>FSD</t>
   </si>
   <si>
     <t>FSTS</t>
   </si>
   <si>
-    <t>0.72422768694375</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.250914358183577</t>
-  </si>
-  <si>
     <t>Tobin's Q</t>
   </si>
   <si>
-    <t>2.09178125</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.05965642559551</t>
-  </si>
-  <si>
     <t>FXD</t>
   </si>
   <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.469108405301765</t>
-  </si>
-  <si>
     <t>Gross FXD</t>
   </si>
   <si>
-    <t>6763.6703125</t>
-  </si>
-  <si>
-    <t>1988.5</t>
-  </si>
-  <si>
-    <t>11849.0612508987</t>
-  </si>
-  <si>
     <t>DERIV</t>
   </si>
   <si>
-    <t>0.1279165625</t>
-  </si>
-  <si>
-    <t>0.0825</t>
-  </si>
-  <si>
-    <t>0.147786205640067</t>
-  </si>
-  <si>
     <t>R&amp;D/sales</t>
   </si>
   <si>
-    <t>0.235052375</t>
-  </si>
-  <si>
-    <t>0.00685</t>
-  </si>
-  <si>
-    <t>1.7803704570469</t>
-  </si>
-  <si>
     <t>Leverage</t>
   </si>
   <si>
-    <t>0.6218375</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.634476289232896</t>
-  </si>
-  <si>
     <t>Quick ratio</t>
   </si>
   <si>
-    <t>0.5970125</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>1.01745036302641</t>
-  </si>
-  <si>
     <t>Capex/sales</t>
   </si>
   <si>
-    <t>0.4132125</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>3.14513371318684</t>
-  </si>
-  <si>
     <t>ROA </t>
   </si>
   <si>
-    <t>0.0688684375</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.123467108957876</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
-    <t>0.89375</t>
-  </si>
-  <si>
-    <t>0.308639953164938</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.447213595499958</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>-72.4178125</t>
-  </si>
-  <si>
-    <t>1055.32448433483</t>
-  </si>
-  <si>
     <t>DDE</t>
   </si>
   <si>
-    <t>0.26875</t>
-  </si>
-  <si>
-    <t>0.464702351900729</t>
-  </si>
-  <si>
     <t>Tobin's Q (ln)</t>
-  </si>
-  <si>
-    <t>0.521681309818884</t>
-  </si>
-  <si>
-    <t>0.405465108108164</t>
-  </si>
-  <si>
-    <t>0.575966258335028</t>
   </si>
 </sst>
 </file>
@@ -318,18 +186,20 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="12" sqref="B2:E3 B5:B19 C5:C6 C8:C14 C19 D5:D19 E5:E6 E14 E19:F19 F2 F6 F9:F14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2908163265306"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.9336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,44 +218,62 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
+      <c r="B2" s="0" t="n">
+        <v>9.60440625</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.90763528317877</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>41222.7721875</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>14092.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>59488.1688920408</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>310348</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -397,261 +285,357 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.72422768694375</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.250914358183577</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.09178125</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.05965642559551</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.675</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>24</v>
+      <c r="D7" s="0" t="n">
+        <v>0.469108405301765</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6763.6703125</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1988.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>11849.0612508987</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>123253</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.22628125</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.620309040906553</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.235052375</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.7803704570469</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.6218375</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.634476289232896</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.5970125</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.01745036302641</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.4132125</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3.14513371318684</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>53.36</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.0688684375</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.123467108957876</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.89375</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>55</v>
+      <c r="D15" s="0" t="n">
+        <v>0.308639953164938</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.275</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>58</v>
+      <c r="D16" s="0" t="n">
+        <v>0.447213595499958</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-72.4178125</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>61</v>
+      <c r="D17" s="0" t="n">
+        <v>1055.32448433483</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>-5025</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.26875</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
+      <c r="D18" s="0" t="n">
+        <v>0.464702351900729</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.521681309818884</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.405465108108164</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.575966258335028</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>-0.7339691750802</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3.1271990362963</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>320</v>
       </c>
     </row>

--- a/outputs/outputAll.xlsx
+++ b/outputs/outputAll.xlsx
@@ -189,15 +189,17 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="12" sqref="B2:E3 B5:B19 C5:C6 C8:C14 C19 D5:D19 E5:E6 E14 E19:F19 F2 F6 F9:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.9336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0051020408163"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
@@ -236,7 +238,7 @@
         <v>9.81</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.90763528317877</v>
+        <v>1.9076352832</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4.09</v>
@@ -299,13 +301,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.72422768694375</v>
+        <v>0.7242276869</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.795</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.250914358183577</v>
+        <v>0.2509143582</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.1</v>
@@ -328,7 +330,7 @@
         <v>1.5</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2.05965642559551</v>
+        <v>2.0596564256</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.48</v>
@@ -351,7 +353,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.469108405301765</v>
+        <v>0.4691084053</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -397,7 +399,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.620309040906553</v>
+        <v>0.6203090409</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -420,7 +422,7 @@
         <v>0.00685</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.7803704570469</v>
+        <v>1.780370457</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -443,7 +445,7 @@
         <v>0.49</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.634476289232896</v>
+        <v>0.6344762892</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -466,7 +468,7 @@
         <v>0.22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.01745036302641</v>
+        <v>1.017450363</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -489,7 +491,7 @@
         <v>0.03</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3.14513371318684</v>
+        <v>3.1451337132</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -512,7 +514,7 @@
         <v>0.07</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.123467108957876</v>
+        <v>0.123467109</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>-0.72</v>
@@ -535,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.308639953164938</v>
+        <v>0.3086399532</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -558,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.447213595499958</v>
+        <v>0.4472135955</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -581,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1055.32448433483</v>
+        <v>1055.3244843348</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>-5025</v>
@@ -598,16 +600,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.26875</v>
+        <v>0.278125</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.464702351900729</v>
+        <v>0.4487770739</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -621,19 +623,19 @@
         <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.521681309818884</v>
+        <v>0.5216813098</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.405465108108164</v>
+        <v>0.4054651081</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.575966258335028</v>
+        <v>0.5759662583</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.7339691750802</v>
+        <v>-0.7339691751</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3.1271990362963</v>
+        <v>3.1271990363</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>320</v>
